--- a/data/beeColonyLoss.xlsx
+++ b/data/beeColonyLoss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyk/OneDrive/VizWiz/Makeover Monday/Data/2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckuna\Desktop\HOMEWORK\beeColonies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F4D5FE-36EF-BB45-89D7-C0D73FC7D849}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB5B59-5CA1-49BD-B7E7-828647ED06D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16240" xr2:uid="{E20A1C8E-6EA7-324E-9011-73353909536E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E20A1C8E-6EA7-324E-9011-73353909536E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,11 +607,11 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="10.7109375" style="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="7" width="10.7265625" style="1"/>
+    <col min="8" max="8" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -641,7 +641,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="17" customHeight="1">
+    <row r="2" spans="1:15" ht="16.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="17" customHeight="1">
+    <row r="3" spans="1:15" ht="16.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="17" customHeight="1">
+    <row r="4" spans="1:15" ht="16.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="17" customHeight="1">
+    <row r="5" spans="1:15" ht="16.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="17" customHeight="1">
+    <row r="6" spans="1:15" ht="16.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="17" customHeight="1">
+    <row r="7" spans="1:15" ht="16.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="17" customHeight="1">
+    <row r="8" spans="1:15" ht="16.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="17" customHeight="1">
+    <row r="9" spans="1:15" ht="16.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="17" customHeight="1">
+    <row r="10" spans="1:15" ht="16.95" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="17" customHeight="1">
+    <row r="11" spans="1:15" ht="16.95" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="17" customHeight="1">
+    <row r="12" spans="1:15" ht="16.95" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" ht="17" customHeight="1">
+    <row r="13" spans="1:15" ht="16.95" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" ht="17" customHeight="1">
+    <row r="14" spans="1:15" ht="16.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="17" customHeight="1">
+    <row r="15" spans="1:15" ht="16.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="17" customHeight="1">
+    <row r="16" spans="1:15" ht="16.95" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" ht="17" customHeight="1">
+    <row r="17" spans="1:15" ht="16.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" ht="17" customHeight="1">
+    <row r="18" spans="1:15" ht="16.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="17" customHeight="1">
+    <row r="19" spans="1:15" ht="16.95" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="17" customHeight="1">
+    <row r="20" spans="1:15" ht="16.95" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="17" customHeight="1">
+    <row r="21" spans="1:15" ht="16.95" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="17" customHeight="1">
+    <row r="22" spans="1:15" ht="16.95" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="17" customHeight="1">
+    <row r="23" spans="1:15" ht="16.95" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" ht="17" customHeight="1">
+    <row r="24" spans="1:15" ht="16.95" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" ht="17" customHeight="1">
+    <row r="25" spans="1:15" ht="16.95" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" ht="17" customHeight="1">
+    <row r="26" spans="1:15" ht="16.95" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" ht="17" customHeight="1">
+    <row r="27" spans="1:15" ht="16.95" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" ht="17" customHeight="1">
+    <row r="28" spans="1:15" ht="16.95" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" ht="17" customHeight="1">
+    <row r="29" spans="1:15" ht="16.95" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="17" customHeight="1">
+    <row r="30" spans="1:15" ht="16.95" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="17" customHeight="1">
+    <row r="31" spans="1:15" ht="16.95" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="17" customHeight="1">
+    <row r="32" spans="1:15" ht="16.95" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" ht="17" customHeight="1">
+    <row r="33" spans="1:15" ht="16.95" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="17" customHeight="1">
+    <row r="34" spans="1:15" ht="16.95" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="17" customHeight="1">
+    <row r="35" spans="1:15" ht="16.95" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="17" customHeight="1">
+    <row r="36" spans="1:15" ht="16.95" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="17" customHeight="1">
+    <row r="37" spans="1:15" ht="16.95" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="17" customHeight="1">
+    <row r="38" spans="1:15" ht="16.95" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="17" customHeight="1">
+    <row r="39" spans="1:15" ht="16.95" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="17" customHeight="1">
+    <row r="40" spans="1:15" ht="16.95" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="17" customHeight="1">
+    <row r="41" spans="1:15" ht="16.95" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="17" customHeight="1">
+    <row r="42" spans="1:15" ht="16.95" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="17" customHeight="1">
+    <row r="43" spans="1:15" ht="16.95" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="17" customHeight="1">
+    <row r="44" spans="1:15" ht="16.95" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="17" customHeight="1">
+    <row r="45" spans="1:15" ht="16.95" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="17" customHeight="1">
+    <row r="46" spans="1:15" ht="16.95" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="17" customHeight="1">
+    <row r="47" spans="1:15" ht="16.95" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="17" customHeight="1">
+    <row r="48" spans="1:15" ht="16.95" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="17" customHeight="1">
+    <row r="49" spans="1:15" ht="16.95" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="17" customHeight="1">
+    <row r="50" spans="1:15" ht="16.95" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="17" customHeight="1">
+    <row r="51" spans="1:15" ht="16.95" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="17" customHeight="1">
+    <row r="52" spans="1:15" ht="16.95" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -10390,7 +10390,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H366" xr:uid="{1AE12D80-561B-BF44-B7F9-E3CA1081D78E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
